--- a/resources/imports/ProductSeeder.xlsx
+++ b/resources/imports/ProductSeeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\Perkuliahan\Semester 4\Pemrograman Web\Proyek Akhir\source\mlijo-apps\resources\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C240454E-1387-4663-9DC6-E6D1523B0BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF53F09-7D68-4022-8190-D594782821ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35715" yWindow="4005" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produk" sheetId="1" r:id="rId1"/>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1375,10 +1375,10 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>3</v>
@@ -1668,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>114</v>
@@ -1724,10 +1724,10 @@
         <v>14</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J11">
         <v>4</v>
@@ -1806,10 +1806,10 @@
         <v>14</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>11500</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J13">
         <v>6</v>
@@ -1844,10 +1844,10 @@
         <v>14</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J14">
         <v>12</v>
@@ -1996,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>121</v>
@@ -2512,10 +2512,10 @@
         <v>14</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J30">
         <v>6</v>
@@ -2553,10 +2553,10 @@
         <v>14</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="J31">
         <v>12</v>
